--- a/ADMON_DEL_PROYECTO/BITACORAS/2019/JUN/Junio.xlsx
+++ b/ADMON_DEL_PROYECTO/BITACORAS/2019/JUN/Junio.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="15345" windowHeight="4665" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="15345" windowHeight="4665"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
   <si>
     <t>Grupo:</t>
   </si>
@@ -272,18 +272,9 @@
     <t>Todo el equipo</t>
   </si>
   <si>
-    <t>Enero-Abril 2019</t>
-  </si>
-  <si>
     <t>MSC.Nancy Aracely Cruz Ramos</t>
   </si>
   <si>
-    <t>8A-ITI</t>
-  </si>
-  <si>
-    <t>Base de datos para aplicaciones</t>
-  </si>
-  <si>
     <t>Garcés Tello Roberto Lidio</t>
   </si>
   <si>
@@ -299,12 +290,6 @@
     <t>Desarrollar una plataforma web para la prevención y la monitorización de la discriminación en el estado de Veracruz, que permita a las instituciones registradas identificar y atender los casos de discriminación detectados</t>
   </si>
   <si>
-    <t>Plataforma de prevención y monitorización de discriminación del estado de Veracruz</t>
-  </si>
-  <si>
-    <t>Plataforma de prevención y monitorización de discriminación del estado de Veracruz.</t>
-  </si>
-  <si>
     <t>Chávez Martínez Christian Paul</t>
   </si>
   <si>
@@ -330,6 +315,54 @@
   </si>
   <si>
     <t>En reunión con el equipo, se analizo que el WEB SCRAPING realizado en cada noticia filtrada fuera correcto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correcciones y comentarios sobre avance </t>
+  </si>
+  <si>
+    <t>Arath Yael, Roberto Lidio, Christian Paul y Jonathan Carlos</t>
+  </si>
+  <si>
+    <t>Crear el catalogo de frases o palabras en archivos externos o separados.</t>
+  </si>
+  <si>
+    <t>Correccion de errores ortograficos, eliminar los Labels repetitivos en las ventanas, correcion de hipervinculos de los botones de la pagina, Agregar tooltips y mensajes a botones, verificar el envio de correos (tomcat).</t>
+  </si>
+  <si>
+    <t>Eddy Lopez Bravo</t>
+  </si>
+  <si>
+    <t>9A-ITI</t>
+  </si>
+  <si>
+    <t>Mayo-Agosto 2019</t>
+  </si>
+  <si>
+    <t>Desarrollo de Aplicaciones Web</t>
+  </si>
+  <si>
+    <t>Plataforma para la Prevención y Monitorización de casos de Discriminación en el Estado de Veracruz</t>
+  </si>
+  <si>
+    <t>Pruebas del guardado de noticias discriminatorias de acuerdo a su zona detectada por el algoritmo</t>
+  </si>
+  <si>
+    <t>Arath Yael</t>
+  </si>
+  <si>
+    <t>Desarrollo de consultas SQL para obtener los porcentajes de discriminación por zona y generales</t>
+  </si>
+  <si>
+    <t>Christian Paul y Jonathan Carlos</t>
+  </si>
+  <si>
+    <t>Diseñar las graficas para los porcentajes de discriminacion a mostrar</t>
+  </si>
+  <si>
+    <t>Consultas.sql</t>
+  </si>
+  <si>
+    <t>Codigo php</t>
   </si>
 </sst>
 </file>
@@ -902,6 +935,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -921,6 +960,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -931,39 +997,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1570,8 +1603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:H7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,7 +1661,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E6" s="53"/>
       <c r="F6" s="53"/>
@@ -1640,7 +1673,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="40"/>
@@ -1652,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E8" s="40"/>
       <c r="F8" s="40"/>
@@ -1664,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E9" s="40"/>
       <c r="F9" s="40"/>
@@ -1688,7 +1721,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
@@ -1727,7 +1760,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E15" s="41"/>
       <c r="F15" s="41"/>
@@ -1739,7 +1772,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
@@ -1751,7 +1784,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E17" s="39"/>
       <c r="F17" s="39"/>
@@ -1763,7 +1796,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
@@ -1775,7 +1808,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
@@ -1821,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B3" zoomScaleNormal="100" zoomScaleSheetLayoutView="62" zoomScalePageLayoutView="57" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E14"/>
+    <sheetView showGridLines="0" topLeftCell="D2" zoomScale="71" zoomScaleNormal="71" zoomScaleSheetLayoutView="62" zoomScalePageLayoutView="57" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1911,7 +1944,7 @@
       </c>
       <c r="C6" s="67"/>
       <c r="D6" s="73" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E6" s="73"/>
       <c r="F6" s="73"/>
@@ -1942,7 +1975,7 @@
       </c>
       <c r="C7" s="67"/>
       <c r="D7" s="74" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E7" s="74"/>
       <c r="F7" s="74"/>
@@ -2051,11 +2084,11 @@
       <c r="B11" s="93">
         <v>1</v>
       </c>
-      <c r="C11" s="77" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="78"/>
-      <c r="E11" s="94"/>
+      <c r="C11" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="80"/>
+      <c r="E11" s="77"/>
       <c r="F11" s="19" t="s">
         <v>37</v>
       </c>
@@ -2077,9 +2110,9 @@
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" s="93"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="95"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="78"/>
       <c r="F12" s="19" t="s">
         <v>36</v>
       </c>
@@ -2103,12 +2136,12 @@
       <c r="B13" s="93">
         <v>2</v>
       </c>
-      <c r="C13" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="78"/>
-      <c r="E13" s="96" t="s">
-        <v>63</v>
+      <c r="C13" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="80"/>
+      <c r="E13" s="89" t="s">
+        <v>58</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>37</v>
@@ -2131,9 +2164,9 @@
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" s="93"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="97"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="90"/>
       <c r="F14" s="19" t="s">
         <v>36</v>
       </c>
@@ -2157,12 +2190,12 @@
       <c r="B15" s="93">
         <v>3</v>
       </c>
-      <c r="C15" s="77" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="78"/>
+      <c r="C15" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="80"/>
       <c r="E15" s="91" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>37</v>
@@ -2185,8 +2218,8 @@
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" s="93"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="80"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="82"/>
       <c r="E16" s="92"/>
       <c r="F16" s="19" t="s">
         <v>36</v>
@@ -2211,12 +2244,12 @@
       <c r="B17" s="93">
         <v>4</v>
       </c>
-      <c r="C17" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="88"/>
+      <c r="C17" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="86"/>
       <c r="E17" s="91" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F17" s="19" t="s">
         <v>37</v>
@@ -2239,8 +2272,8 @@
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" s="93"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="90"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="88"/>
       <c r="E18" s="92"/>
       <c r="F18" s="19" t="s">
         <v>36</v>
@@ -2265,13 +2298,15 @@
       <c r="B19" s="93">
         <v>5</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="81"/>
+      <c r="C19" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="83"/>
       <c r="F19" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="19"/>
+      <c r="G19" s="38"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="21"/>
@@ -2289,13 +2324,13 @@
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" s="93"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="82"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="84"/>
       <c r="F20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="19"/>
+      <c r="G20" s="38"/>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -2315,9 +2350,9 @@
       <c r="B21" s="93">
         <v>6</v>
       </c>
-      <c r="C21" s="87"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="81"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="83"/>
       <c r="F21" s="19" t="s">
         <v>37</v>
       </c>
@@ -2339,9 +2374,9 @@
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" s="93"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="82"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="84"/>
       <c r="F22" s="19" t="s">
         <v>36</v>
       </c>
@@ -2365,9 +2400,9 @@
       <c r="B23" s="93">
         <v>7</v>
       </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="81"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="83"/>
       <c r="F23" s="19" t="s">
         <v>37</v>
       </c>
@@ -2389,9 +2424,9 @@
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" s="93"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="82"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="84"/>
       <c r="F24" s="4" t="s">
         <v>36</v>
       </c>
@@ -2415,9 +2450,9 @@
       <c r="B25" s="93">
         <v>8</v>
       </c>
-      <c r="C25" s="83"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="81"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="83"/>
       <c r="F25" s="4" t="s">
         <v>37</v>
       </c>
@@ -2439,9 +2474,9 @@
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26" s="93"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="82"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="84"/>
       <c r="F26" s="4" t="s">
         <v>36</v>
       </c>
@@ -2465,9 +2500,9 @@
       <c r="B27" s="93">
         <v>9</v>
       </c>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="81"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="83"/>
       <c r="F27" s="4" t="s">
         <v>37</v>
       </c>
@@ -2489,9 +2524,9 @@
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" s="93"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="82"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="84"/>
       <c r="F28" s="4" t="s">
         <v>36</v>
       </c>
@@ -2515,9 +2550,9 @@
       <c r="B29" s="93">
         <v>10</v>
       </c>
-      <c r="C29" s="83"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="81"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="83"/>
       <c r="F29" s="4" t="s">
         <v>37</v>
       </c>
@@ -2539,9 +2574,9 @@
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" s="93"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="82"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="84"/>
       <c r="F30" s="4" t="s">
         <v>36</v>
       </c>
@@ -2565,9 +2600,9 @@
       <c r="B31" s="93">
         <v>12</v>
       </c>
-      <c r="C31" s="83"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="81"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="83"/>
       <c r="F31" s="4" t="s">
         <v>37</v>
       </c>
@@ -2589,9 +2624,9 @@
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" s="93"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="82"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="84"/>
       <c r="F32" s="4" t="s">
         <v>36</v>
       </c>
@@ -2615,9 +2650,9 @@
       <c r="B33" s="93">
         <v>13</v>
       </c>
-      <c r="C33" s="83"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="81"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="83"/>
       <c r="F33" s="4" t="s">
         <v>37</v>
       </c>
@@ -2639,9 +2674,9 @@
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" s="93"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="82"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="84"/>
       <c r="F34" s="4" t="s">
         <v>36</v>
       </c>
@@ -2719,10 +2754,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K110"/>
+  <dimension ref="B2:K113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2821,7 +2856,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="20" t="s">
@@ -2829,107 +2864,171 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="2:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="20"/>
+    <row r="10" spans="2:11" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="9">
+        <v>2</v>
+      </c>
+      <c r="C10" s="34">
+        <v>43626</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="33"/>
+      <c r="H10" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="2:11" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="20"/>
+    <row r="11" spans="2:11" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="34">
+        <v>43630</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="2:11" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="20"/>
+    <row r="12" spans="2:11" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9">
+        <v>3</v>
+      </c>
+      <c r="C12" s="34">
+        <v>43633</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="2:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="18"/>
+    <row r="13" spans="2:11" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="9">
+        <v>3</v>
+      </c>
+      <c r="C13" s="34">
+        <v>43637</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="2:11" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="20"/>
+    <row r="14" spans="2:11" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="9">
+        <v>3</v>
+      </c>
+      <c r="C14" s="34">
+        <v>43637</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="33"/>
+      <c r="H14" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="2:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="17"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="22"/>
       <c r="G15" s="22"/>
-      <c r="H15" s="18"/>
+      <c r="H15" s="20"/>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="16"/>
-      <c r="D16" s="18"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="17"/>
       <c r="G16" s="23"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="2:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
       <c r="C17" s="16"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="18"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="20"/>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="10"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="10"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="G18" s="22"/>
       <c r="H18" s="18"/>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="10"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="10"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="18"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="20"/>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="2:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="16"/>
       <c r="D20" s="10"/>
@@ -2939,17 +3038,17 @@
       <c r="H20" s="18"/>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="2:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="C21" s="16"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="11"/>
+      <c r="G21" s="17"/>
       <c r="H21" s="18"/>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="2:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
       <c r="C22" s="16"/>
       <c r="D22" s="10"/>
@@ -2959,17 +3058,17 @@
       <c r="H22" s="18"/>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="2:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
       <c r="C23" s="16"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="10"/>
+      <c r="H23" s="18"/>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="2:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" s="16"/>
       <c r="D24" s="10"/>
@@ -2984,7 +3083,7 @@
       <c r="C25" s="16"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
+      <c r="F25" s="17"/>
       <c r="G25" s="11"/>
       <c r="H25" s="18"/>
       <c r="I25" s="14"/>
@@ -2996,7 +3095,7 @@
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
-      <c r="H26" s="18"/>
+      <c r="H26" s="10"/>
       <c r="I26" s="14"/>
     </row>
     <row r="27" spans="2:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3014,7 +3113,7 @@
       <c r="C28" s="16"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
-      <c r="F28" s="17"/>
+      <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="18"/>
       <c r="I28" s="14"/>
@@ -3034,39 +3133,39 @@
       <c r="C30" s="16"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="11"/>
+      <c r="F30" s="17"/>
       <c r="G30" s="11"/>
       <c r="H30" s="18"/>
       <c r="I30" s="14"/>
     </row>
     <row r="31" spans="2:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
-      <c r="F31" s="11"/>
+      <c r="F31" s="17"/>
       <c r="G31" s="11"/>
-      <c r="H31" s="10"/>
+      <c r="H31" s="18"/>
       <c r="I31" s="14"/>
     </row>
     <row r="32" spans="2:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
+      <c r="C32" s="16"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
-      <c r="H32" s="10"/>
+      <c r="H32" s="18"/>
       <c r="I32" s="14"/>
     </row>
     <row r="33" spans="2:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
+      <c r="C33" s="16"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
-      <c r="H33" s="10"/>
+      <c r="H33" s="18"/>
       <c r="I33" s="14"/>
     </row>
     <row r="34" spans="2:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3839,12 +3938,42 @@
       <c r="H110" s="10"/>
       <c r="I110" s="14"/>
     </row>
+    <row r="111" spans="2:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="14"/>
+    </row>
+    <row r="112" spans="2:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="14"/>
+    </row>
+    <row r="113" spans="2:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:I5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Semanas del curso" error="Las actividades solo se pueden realizar dentro de las 15 semanas que dura el cuatrimestre." sqref="B9:B110">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Semanas del curso" error="Las actividades solo se pueden realizar dentro de las 15 semanas que dura el cuatrimestre." sqref="B9:B113">
       <formula1>1</formula1>
       <formula2>15</formula2>
     </dataValidation>
@@ -3859,13 +3988,13 @@
           <x14:formula1>
             <xm:f>Hoja3!$F$4:$F$5</xm:f>
           </x14:formula1>
-          <xm:sqref>E9:E110</xm:sqref>
+          <xm:sqref>E9:E113</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Hoja3!$D$4:$D$12</xm:f>
           </x14:formula1>
-          <xm:sqref>D9:D110</xm:sqref>
+          <xm:sqref>D9:D113</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
